--- a/01.project/03.module/01.web/files/人民网/人民网下各个二级链接是否新闻的配置.xlsx
+++ b/01.project/03.module/01.web/files/人民网/人民网下各个二级链接是否新闻的配置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="323">
   <si>
     <t>链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://hhttp:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://hi.people.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,26 +1273,6 @@
   </si>
   <si>
     <t>http://ah.people.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hthttp:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://htmlhttp:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://http:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://htttp:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ttp:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1688,11 +1664,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1707,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1734,7 +1708,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1753,7 +1727,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1761,7 +1735,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1769,7 +1743,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1788,7 +1762,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -2059,7 +2033,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>9</v>
@@ -2067,7 +2041,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -2075,7 +2049,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
@@ -2083,7 +2057,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>9</v>
@@ -2091,7 +2065,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -2099,7 +2073,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>9</v>
@@ -2107,7 +2081,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -2115,7 +2089,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -2123,7 +2097,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -2131,95 +2105,95 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
         <v>155</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>9</v>
@@ -2227,7 +2201,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>9</v>
@@ -2235,7 +2209,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>9</v>
@@ -2243,18 +2217,18 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>9</v>
@@ -2262,7 +2236,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
@@ -2270,18 +2244,18 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
@@ -2289,18 +2263,18 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>9</v>
@@ -2308,7 +2282,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>9</v>
@@ -2316,18 +2290,18 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>9</v>
@@ -2335,7 +2309,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>9</v>
@@ -2343,7 +2317,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
@@ -2351,7 +2325,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -2359,7 +2333,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>9</v>
@@ -2367,29 +2341,29 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -2397,7 +2371,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>9</v>
@@ -2405,7 +2379,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>9</v>
@@ -2413,7 +2387,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>9</v>
@@ -2421,7 +2395,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -2429,7 +2403,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>9</v>
@@ -2437,7 +2411,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
@@ -2445,18 +2419,18 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>9</v>
@@ -2464,7 +2438,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>9</v>
@@ -2472,7 +2446,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>9</v>
@@ -2480,7 +2454,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>9</v>
@@ -2488,7 +2462,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
@@ -2496,7 +2470,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>9</v>
@@ -2504,7 +2478,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
@@ -2512,18 +2486,18 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>9</v>
@@ -2531,7 +2505,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>9</v>
@@ -2539,40 +2513,40 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>9</v>
@@ -2580,7 +2554,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>9</v>
@@ -2588,7 +2562,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>9</v>
@@ -2596,7 +2570,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>9</v>
@@ -2604,24 +2578,24 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2650,7 +2624,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1</v>
@@ -2658,7 +2632,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
@@ -2666,7 +2640,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -2674,7 +2648,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1</v>
@@ -2682,7 +2656,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1</v>
@@ -2690,7 +2664,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -2706,7 +2680,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -2714,7 +2688,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -2722,7 +2696,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
@@ -3290,6 +3264,9 @@
       <c r="A184" t="s">
         <v>114</v>
       </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
@@ -3349,7 +3326,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>9</v>
@@ -3357,7 +3334,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>9</v>
@@ -3365,27 +3342,42 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>316</v>
+        <v>127</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>317</v>
+        <v>128</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>318</v>
+        <v>129</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>319</v>
+        <v>132</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>9</v>
@@ -3393,7 +3385,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>9</v>
@@ -3401,7 +3393,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>9</v>
@@ -3409,26 +3401,26 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D201" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D202" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>9</v>
@@ -3436,7 +3428,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>9</v>
@@ -3444,7 +3436,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>9</v>
@@ -3452,18 +3444,18 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>9</v>
@@ -3471,23 +3463,29 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D208" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D209" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>9</v>
@@ -3495,18 +3493,15 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D211" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>9</v>
@@ -3514,29 +3509,23 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D213" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D214" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>9</v>
@@ -3544,7 +3533,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>9</v>
@@ -3552,7 +3541,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>9</v>
@@ -3560,7 +3549,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>9</v>
@@ -3568,7 +3557,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>9</v>
@@ -3576,7 +3565,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>9</v>
@@ -3584,7 +3573,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>9</v>
@@ -3592,7 +3581,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>9</v>
@@ -3600,7 +3589,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>9</v>
@@ -3608,7 +3597,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>9</v>
@@ -3616,7 +3605,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>9</v>
@@ -3624,7 +3613,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>9</v>
@@ -3632,7 +3621,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>9</v>
@@ -3640,7 +3629,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>9</v>
@@ -3648,7 +3637,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>9</v>
@@ -3656,7 +3645,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>9</v>
@@ -3664,7 +3653,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>9</v>
@@ -3672,7 +3661,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>9</v>
@@ -3680,7 +3669,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>9</v>
@@ -3688,7 +3677,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>9</v>
@@ -3696,7 +3685,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>9</v>
@@ -3704,7 +3693,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>9</v>
@@ -3712,7 +3701,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>9</v>
@@ -3720,7 +3709,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>9</v>
@@ -3728,7 +3717,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>9</v>
@@ -3736,7 +3725,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>9</v>
@@ -3744,7 +3733,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>9</v>
@@ -3752,7 +3741,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>9</v>
@@ -3760,7 +3749,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>9</v>
@@ -3768,7 +3757,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>9</v>
@@ -3776,7 +3765,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>9</v>
@@ -3784,7 +3773,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>9</v>
@@ -3792,7 +3781,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>9</v>
@@ -3800,7 +3789,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>9</v>
@@ -3808,7 +3797,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>9</v>
@@ -3816,7 +3805,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>9</v>
@@ -3824,7 +3813,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>9</v>
@@ -3832,7 +3821,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>9</v>
@@ -3840,7 +3829,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>9</v>
@@ -3848,7 +3837,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>9</v>
@@ -3856,7 +3845,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>9</v>
@@ -3864,7 +3853,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>9</v>
@@ -3872,7 +3861,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>9</v>
@@ -3880,7 +3869,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>9</v>
@@ -3888,7 +3877,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>9</v>
@@ -3896,7 +3885,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>9</v>
@@ -3904,7 +3893,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>9</v>
@@ -3912,7 +3901,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>9</v>
@@ -3920,7 +3909,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>9</v>
@@ -3928,7 +3917,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>9</v>
@@ -3936,7 +3925,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>9</v>
@@ -3944,7 +3933,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>9</v>
@@ -3952,7 +3941,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>9</v>
@@ -3960,7 +3949,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>9</v>
@@ -3968,7 +3957,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>9</v>
@@ -3976,7 +3965,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>9</v>
@@ -3984,7 +3973,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>9</v>
@@ -3992,7 +3981,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>9</v>
@@ -4000,7 +3989,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>9</v>
@@ -4008,7 +3997,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>9</v>
@@ -4016,7 +4005,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>9</v>
@@ -4024,7 +4013,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>9</v>
@@ -4032,7 +4021,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>9</v>
@@ -4040,7 +4029,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>9</v>
@@ -4048,7 +4037,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>9</v>
@@ -4056,7 +4045,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>9</v>
@@ -4064,7 +4053,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>9</v>
@@ -4072,7 +4061,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>9</v>
@@ -4080,7 +4069,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>9</v>
@@ -4088,7 +4077,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>9</v>
@@ -4096,7 +4085,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>9</v>
@@ -4104,7 +4093,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>9</v>
@@ -4112,7 +4101,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>9</v>
@@ -4120,12 +4109,15 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>320</v>
+        <v>275</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>9</v>
@@ -4133,7 +4125,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>9</v>
@@ -4141,7 +4133,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>9</v>
@@ -4149,7 +4141,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>9</v>
@@ -4157,7 +4149,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>9</v>
@@ -4165,7 +4157,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>9</v>
@@ -4173,7 +4165,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>9</v>
@@ -4181,7 +4173,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>9</v>
@@ -4189,7 +4181,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>9</v>
@@ -4197,7 +4189,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>9</v>
@@ -4205,7 +4197,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>9</v>
@@ -4213,7 +4205,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>9</v>
@@ -4221,7 +4213,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>9</v>
@@ -4229,7 +4221,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>9</v>
@@ -4237,7 +4229,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>9</v>
@@ -4245,7 +4237,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>9</v>
@@ -4253,7 +4245,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>9</v>
@@ -4261,7 +4253,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>9</v>
@@ -4269,7 +4261,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>9</v>
@@ -4291,56 +4283,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
-        <v>323</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
-        <v>324</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
-        <v>325</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>326</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
-        <v>327</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>328</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:D315">
+  <sortState ref="B2:C315">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4468,177 +4412,176 @@
     <hyperlink ref="A189" r:id="rId121"/>
     <hyperlink ref="A190" r:id="rId122"/>
     <hyperlink ref="A191" r:id="rId123"/>
-    <hyperlink ref="A192" r:id="rId124"/>
-    <hyperlink ref="A39" r:id="rId125"/>
-    <hyperlink ref="A193" r:id="rId126"/>
-    <hyperlink ref="A40" r:id="rId127"/>
-    <hyperlink ref="A41" r:id="rId128"/>
-    <hyperlink ref="A198" r:id="rId129"/>
-    <hyperlink ref="A199" r:id="rId130"/>
-    <hyperlink ref="A200" r:id="rId131"/>
-    <hyperlink ref="A201" r:id="rId132"/>
-    <hyperlink ref="A42" r:id="rId133"/>
-    <hyperlink ref="A43" r:id="rId134"/>
-    <hyperlink ref="A202" r:id="rId135"/>
-    <hyperlink ref="A203" r:id="rId136"/>
-    <hyperlink ref="A204" r:id="rId137"/>
-    <hyperlink ref="A205" r:id="rId138"/>
-    <hyperlink ref="A206" r:id="rId139"/>
-    <hyperlink ref="A207" r:id="rId140"/>
-    <hyperlink ref="A208" r:id="rId141"/>
-    <hyperlink ref="A209" r:id="rId142"/>
-    <hyperlink ref="A44" r:id="rId143"/>
-    <hyperlink ref="A45" r:id="rId144"/>
-    <hyperlink ref="A46" r:id="rId145"/>
-    <hyperlink ref="A210" r:id="rId146"/>
-    <hyperlink ref="A211" r:id="rId147"/>
-    <hyperlink ref="A212" r:id="rId148"/>
-    <hyperlink ref="A213" r:id="rId149"/>
-    <hyperlink ref="A214" r:id="rId150"/>
-    <hyperlink ref="A215" r:id="rId151"/>
-    <hyperlink ref="A47" r:id="rId152"/>
-    <hyperlink ref="A216" r:id="rId153"/>
-    <hyperlink ref="A48" r:id="rId154"/>
-    <hyperlink ref="A217" r:id="rId155"/>
-    <hyperlink ref="A218" r:id="rId156"/>
-    <hyperlink ref="A219" r:id="rId157"/>
-    <hyperlink ref="A220" r:id="rId158"/>
-    <hyperlink ref="A221" r:id="rId159"/>
-    <hyperlink ref="A222" r:id="rId160"/>
-    <hyperlink ref="A49" r:id="rId161"/>
-    <hyperlink ref="A223" r:id="rId162"/>
-    <hyperlink ref="A224" r:id="rId163"/>
-    <hyperlink ref="A225" r:id="rId164"/>
-    <hyperlink ref="A50" r:id="rId165"/>
-    <hyperlink ref="A51" r:id="rId166"/>
-    <hyperlink ref="A226" r:id="rId167"/>
-    <hyperlink ref="A52" r:id="rId168"/>
-    <hyperlink ref="A53" r:id="rId169"/>
-    <hyperlink ref="A227" r:id="rId170"/>
-    <hyperlink ref="A228" r:id="rId171"/>
-    <hyperlink ref="A229" r:id="rId172"/>
-    <hyperlink ref="A230" r:id="rId173"/>
-    <hyperlink ref="A54" r:id="rId174"/>
-    <hyperlink ref="A55" r:id="rId175"/>
-    <hyperlink ref="A231" r:id="rId176"/>
-    <hyperlink ref="A232" r:id="rId177"/>
-    <hyperlink ref="A233" r:id="rId178"/>
-    <hyperlink ref="A56" r:id="rId179"/>
-    <hyperlink ref="A234" r:id="rId180"/>
-    <hyperlink ref="A57" r:id="rId181"/>
-    <hyperlink ref="A235" r:id="rId182"/>
-    <hyperlink ref="A236" r:id="rId183"/>
-    <hyperlink ref="A237" r:id="rId184"/>
-    <hyperlink ref="A58" r:id="rId185"/>
-    <hyperlink ref="A59" r:id="rId186"/>
-    <hyperlink ref="A60" r:id="rId187"/>
-    <hyperlink ref="A61" r:id="rId188"/>
-    <hyperlink ref="A238" r:id="rId189"/>
-    <hyperlink ref="A62" r:id="rId190"/>
-    <hyperlink ref="A63" r:id="rId191"/>
-    <hyperlink ref="A239" r:id="rId192"/>
-    <hyperlink ref="A240" r:id="rId193"/>
-    <hyperlink ref="A241" r:id="rId194"/>
-    <hyperlink ref="A64" r:id="rId195"/>
-    <hyperlink ref="A242" r:id="rId196"/>
-    <hyperlink ref="A243" r:id="rId197"/>
-    <hyperlink ref="A244" r:id="rId198"/>
-    <hyperlink ref="A245" r:id="rId199"/>
-    <hyperlink ref="A246" r:id="rId200"/>
-    <hyperlink ref="A247" r:id="rId201"/>
-    <hyperlink ref="A248" r:id="rId202"/>
-    <hyperlink ref="A249" r:id="rId203"/>
-    <hyperlink ref="A250" r:id="rId204"/>
-    <hyperlink ref="A65" r:id="rId205"/>
-    <hyperlink ref="A251" r:id="rId206"/>
-    <hyperlink ref="A66" r:id="rId207"/>
-    <hyperlink ref="A67" r:id="rId208"/>
-    <hyperlink ref="A252" r:id="rId209"/>
-    <hyperlink ref="A253" r:id="rId210"/>
-    <hyperlink ref="A68" r:id="rId211"/>
-    <hyperlink ref="A69" r:id="rId212"/>
-    <hyperlink ref="A254" r:id="rId213"/>
-    <hyperlink ref="A70" r:id="rId214"/>
-    <hyperlink ref="A71" r:id="rId215"/>
-    <hyperlink ref="A72" r:id="rId216"/>
-    <hyperlink ref="A73" r:id="rId217"/>
-    <hyperlink ref="A255" r:id="rId218"/>
-    <hyperlink ref="A256" r:id="rId219"/>
-    <hyperlink ref="A257" r:id="rId220"/>
-    <hyperlink ref="A258" r:id="rId221"/>
-    <hyperlink ref="A259" r:id="rId222"/>
-    <hyperlink ref="A260" r:id="rId223"/>
-    <hyperlink ref="A261" r:id="rId224"/>
-    <hyperlink ref="A262" r:id="rId225"/>
-    <hyperlink ref="A263" r:id="rId226"/>
-    <hyperlink ref="A74" r:id="rId227"/>
-    <hyperlink ref="A75" r:id="rId228"/>
-    <hyperlink ref="A76" r:id="rId229"/>
-    <hyperlink ref="A265" r:id="rId230"/>
-    <hyperlink ref="A264" r:id="rId231"/>
-    <hyperlink ref="A77" r:id="rId232"/>
-    <hyperlink ref="A78" r:id="rId233"/>
-    <hyperlink ref="A79" r:id="rId234"/>
-    <hyperlink ref="A80" r:id="rId235"/>
-    <hyperlink ref="A266" r:id="rId236"/>
-    <hyperlink ref="A267" r:id="rId237"/>
-    <hyperlink ref="A81" r:id="rId238"/>
-    <hyperlink ref="A268" r:id="rId239"/>
-    <hyperlink ref="A269" r:id="rId240"/>
-    <hyperlink ref="A270" r:id="rId241"/>
-    <hyperlink ref="A271" r:id="rId242"/>
-    <hyperlink ref="A82" r:id="rId243"/>
-    <hyperlink ref="A272" r:id="rId244"/>
-    <hyperlink ref="A83" r:id="rId245"/>
-    <hyperlink ref="A273" r:id="rId246"/>
-    <hyperlink ref="A84" r:id="rId247"/>
-    <hyperlink ref="A274" r:id="rId248"/>
-    <hyperlink ref="A85" r:id="rId249"/>
-    <hyperlink ref="A275" r:id="rId250"/>
-    <hyperlink ref="A276" r:id="rId251"/>
-    <hyperlink ref="A277" r:id="rId252"/>
-    <hyperlink ref="A278" r:id="rId253"/>
-    <hyperlink ref="A279" r:id="rId254"/>
-    <hyperlink ref="A280" r:id="rId255"/>
-    <hyperlink ref="A281" r:id="rId256"/>
-    <hyperlink ref="A282" r:id="rId257"/>
-    <hyperlink ref="A283" r:id="rId258"/>
-    <hyperlink ref="A86" r:id="rId259"/>
-    <hyperlink ref="A284" r:id="rId260"/>
-    <hyperlink ref="A87" r:id="rId261"/>
-    <hyperlink ref="A88" r:id="rId262"/>
-    <hyperlink ref="A285" r:id="rId263"/>
-    <hyperlink ref="A286" r:id="rId264"/>
-    <hyperlink ref="A287" r:id="rId265"/>
-    <hyperlink ref="A89" r:id="rId266"/>
-    <hyperlink ref="A90" r:id="rId267"/>
-    <hyperlink ref="A289" r:id="rId268"/>
-    <hyperlink ref="A290" r:id="rId269"/>
-    <hyperlink ref="A291" r:id="rId270"/>
-    <hyperlink ref="A292" r:id="rId271"/>
-    <hyperlink ref="A91" r:id="rId272"/>
-    <hyperlink ref="A293" r:id="rId273"/>
-    <hyperlink ref="A294" r:id="rId274"/>
-    <hyperlink ref="A92" r:id="rId275"/>
-    <hyperlink ref="A295" r:id="rId276"/>
-    <hyperlink ref="A93" r:id="rId277"/>
-    <hyperlink ref="A296" r:id="rId278"/>
-    <hyperlink ref="A297" r:id="rId279"/>
-    <hyperlink ref="A94" r:id="rId280"/>
-    <hyperlink ref="A298" r:id="rId281"/>
-    <hyperlink ref="A299" r:id="rId282"/>
-    <hyperlink ref="A300" r:id="rId283"/>
-    <hyperlink ref="A301" r:id="rId284"/>
-    <hyperlink ref="A302" r:id="rId285"/>
-    <hyperlink ref="A303" r:id="rId286"/>
-    <hyperlink ref="A95" r:id="rId287"/>
-    <hyperlink ref="A304" r:id="rId288"/>
-    <hyperlink ref="A305" r:id="rId289"/>
-    <hyperlink ref="A306" r:id="rId290"/>
-    <hyperlink ref="A307" r:id="rId291"/>
+    <hyperlink ref="A39" r:id="rId124"/>
+    <hyperlink ref="A192" r:id="rId125"/>
+    <hyperlink ref="A40" r:id="rId126"/>
+    <hyperlink ref="A41" r:id="rId127"/>
+    <hyperlink ref="A193" r:id="rId128"/>
+    <hyperlink ref="A194" r:id="rId129"/>
+    <hyperlink ref="A195" r:id="rId130"/>
+    <hyperlink ref="A196" r:id="rId131"/>
+    <hyperlink ref="A42" r:id="rId132"/>
+    <hyperlink ref="A43" r:id="rId133"/>
+    <hyperlink ref="A197" r:id="rId134"/>
+    <hyperlink ref="A198" r:id="rId135"/>
+    <hyperlink ref="A199" r:id="rId136"/>
+    <hyperlink ref="A200" r:id="rId137"/>
+    <hyperlink ref="A201" r:id="rId138"/>
+    <hyperlink ref="A202" r:id="rId139"/>
+    <hyperlink ref="A203" r:id="rId140"/>
+    <hyperlink ref="A204" r:id="rId141"/>
+    <hyperlink ref="A44" r:id="rId142"/>
+    <hyperlink ref="A45" r:id="rId143"/>
+    <hyperlink ref="A46" r:id="rId144"/>
+    <hyperlink ref="A205" r:id="rId145"/>
+    <hyperlink ref="A206" r:id="rId146"/>
+    <hyperlink ref="A207" r:id="rId147"/>
+    <hyperlink ref="A208" r:id="rId148"/>
+    <hyperlink ref="A209" r:id="rId149"/>
+    <hyperlink ref="A210" r:id="rId150"/>
+    <hyperlink ref="A47" r:id="rId151"/>
+    <hyperlink ref="A211" r:id="rId152"/>
+    <hyperlink ref="A48" r:id="rId153"/>
+    <hyperlink ref="A212" r:id="rId154"/>
+    <hyperlink ref="A213" r:id="rId155"/>
+    <hyperlink ref="A214" r:id="rId156"/>
+    <hyperlink ref="A215" r:id="rId157"/>
+    <hyperlink ref="A216" r:id="rId158"/>
+    <hyperlink ref="A217" r:id="rId159"/>
+    <hyperlink ref="A49" r:id="rId160"/>
+    <hyperlink ref="A218" r:id="rId161"/>
+    <hyperlink ref="A219" r:id="rId162"/>
+    <hyperlink ref="A220" r:id="rId163"/>
+    <hyperlink ref="A50" r:id="rId164"/>
+    <hyperlink ref="A51" r:id="rId165"/>
+    <hyperlink ref="A221" r:id="rId166"/>
+    <hyperlink ref="A52" r:id="rId167"/>
+    <hyperlink ref="A53" r:id="rId168"/>
+    <hyperlink ref="A222" r:id="rId169"/>
+    <hyperlink ref="A223" r:id="rId170"/>
+    <hyperlink ref="A224" r:id="rId171"/>
+    <hyperlink ref="A225" r:id="rId172"/>
+    <hyperlink ref="A54" r:id="rId173"/>
+    <hyperlink ref="A55" r:id="rId174"/>
+    <hyperlink ref="A226" r:id="rId175"/>
+    <hyperlink ref="A227" r:id="rId176"/>
+    <hyperlink ref="A228" r:id="rId177"/>
+    <hyperlink ref="A56" r:id="rId178"/>
+    <hyperlink ref="A229" r:id="rId179"/>
+    <hyperlink ref="A57" r:id="rId180"/>
+    <hyperlink ref="A230" r:id="rId181"/>
+    <hyperlink ref="A231" r:id="rId182"/>
+    <hyperlink ref="A232" r:id="rId183"/>
+    <hyperlink ref="A58" r:id="rId184"/>
+    <hyperlink ref="A59" r:id="rId185"/>
+    <hyperlink ref="A60" r:id="rId186"/>
+    <hyperlink ref="A61" r:id="rId187"/>
+    <hyperlink ref="A233" r:id="rId188"/>
+    <hyperlink ref="A62" r:id="rId189"/>
+    <hyperlink ref="A63" r:id="rId190"/>
+    <hyperlink ref="A234" r:id="rId191"/>
+    <hyperlink ref="A235" r:id="rId192"/>
+    <hyperlink ref="A236" r:id="rId193"/>
+    <hyperlink ref="A64" r:id="rId194"/>
+    <hyperlink ref="A237" r:id="rId195"/>
+    <hyperlink ref="A238" r:id="rId196"/>
+    <hyperlink ref="A239" r:id="rId197"/>
+    <hyperlink ref="A240" r:id="rId198"/>
+    <hyperlink ref="A241" r:id="rId199"/>
+    <hyperlink ref="A242" r:id="rId200"/>
+    <hyperlink ref="A243" r:id="rId201"/>
+    <hyperlink ref="A244" r:id="rId202"/>
+    <hyperlink ref="A245" r:id="rId203"/>
+    <hyperlink ref="A65" r:id="rId204"/>
+    <hyperlink ref="A246" r:id="rId205"/>
+    <hyperlink ref="A66" r:id="rId206"/>
+    <hyperlink ref="A67" r:id="rId207"/>
+    <hyperlink ref="A247" r:id="rId208"/>
+    <hyperlink ref="A248" r:id="rId209"/>
+    <hyperlink ref="A68" r:id="rId210"/>
+    <hyperlink ref="A69" r:id="rId211"/>
+    <hyperlink ref="A249" r:id="rId212"/>
+    <hyperlink ref="A70" r:id="rId213"/>
+    <hyperlink ref="A71" r:id="rId214"/>
+    <hyperlink ref="A72" r:id="rId215"/>
+    <hyperlink ref="A73" r:id="rId216"/>
+    <hyperlink ref="A250" r:id="rId217"/>
+    <hyperlink ref="A251" r:id="rId218"/>
+    <hyperlink ref="A252" r:id="rId219"/>
+    <hyperlink ref="A253" r:id="rId220"/>
+    <hyperlink ref="A254" r:id="rId221"/>
+    <hyperlink ref="A255" r:id="rId222"/>
+    <hyperlink ref="A256" r:id="rId223"/>
+    <hyperlink ref="A257" r:id="rId224"/>
+    <hyperlink ref="A258" r:id="rId225"/>
+    <hyperlink ref="A74" r:id="rId226"/>
+    <hyperlink ref="A75" r:id="rId227"/>
+    <hyperlink ref="A76" r:id="rId228"/>
+    <hyperlink ref="A260" r:id="rId229"/>
+    <hyperlink ref="A259" r:id="rId230"/>
+    <hyperlink ref="A77" r:id="rId231"/>
+    <hyperlink ref="A78" r:id="rId232"/>
+    <hyperlink ref="A79" r:id="rId233"/>
+    <hyperlink ref="A80" r:id="rId234"/>
+    <hyperlink ref="A261" r:id="rId235"/>
+    <hyperlink ref="A262" r:id="rId236"/>
+    <hyperlink ref="A81" r:id="rId237"/>
+    <hyperlink ref="A263" r:id="rId238"/>
+    <hyperlink ref="A264" r:id="rId239"/>
+    <hyperlink ref="A265" r:id="rId240"/>
+    <hyperlink ref="A266" r:id="rId241"/>
+    <hyperlink ref="A82" r:id="rId242"/>
+    <hyperlink ref="A267" r:id="rId243"/>
+    <hyperlink ref="A83" r:id="rId244"/>
+    <hyperlink ref="A268" r:id="rId245"/>
+    <hyperlink ref="A84" r:id="rId246"/>
+    <hyperlink ref="A269" r:id="rId247"/>
+    <hyperlink ref="A85" r:id="rId248"/>
+    <hyperlink ref="A270" r:id="rId249"/>
+    <hyperlink ref="A271" r:id="rId250"/>
+    <hyperlink ref="A272" r:id="rId251"/>
+    <hyperlink ref="A273" r:id="rId252"/>
+    <hyperlink ref="A274" r:id="rId253"/>
+    <hyperlink ref="A275" r:id="rId254"/>
+    <hyperlink ref="A276" r:id="rId255"/>
+    <hyperlink ref="A277" r:id="rId256"/>
+    <hyperlink ref="A278" r:id="rId257"/>
+    <hyperlink ref="A86" r:id="rId258"/>
+    <hyperlink ref="A279" r:id="rId259"/>
+    <hyperlink ref="A87" r:id="rId260"/>
+    <hyperlink ref="A88" r:id="rId261"/>
+    <hyperlink ref="A280" r:id="rId262"/>
+    <hyperlink ref="A281" r:id="rId263"/>
+    <hyperlink ref="A282" r:id="rId264"/>
+    <hyperlink ref="A89" r:id="rId265"/>
+    <hyperlink ref="A90" r:id="rId266"/>
+    <hyperlink ref="A283" r:id="rId267"/>
+    <hyperlink ref="A284" r:id="rId268"/>
+    <hyperlink ref="A285" r:id="rId269"/>
+    <hyperlink ref="A286" r:id="rId270"/>
+    <hyperlink ref="A91" r:id="rId271"/>
+    <hyperlink ref="A287" r:id="rId272"/>
+    <hyperlink ref="A288" r:id="rId273"/>
+    <hyperlink ref="A92" r:id="rId274"/>
+    <hyperlink ref="A289" r:id="rId275"/>
+    <hyperlink ref="A93" r:id="rId276"/>
+    <hyperlink ref="A290" r:id="rId277"/>
+    <hyperlink ref="A291" r:id="rId278"/>
+    <hyperlink ref="A94" r:id="rId279"/>
+    <hyperlink ref="A292" r:id="rId280"/>
+    <hyperlink ref="A293" r:id="rId281"/>
+    <hyperlink ref="A294" r:id="rId282"/>
+    <hyperlink ref="A295" r:id="rId283"/>
+    <hyperlink ref="A296" r:id="rId284"/>
+    <hyperlink ref="A297" r:id="rId285"/>
+    <hyperlink ref="A95" r:id="rId286"/>
+    <hyperlink ref="A298" r:id="rId287"/>
+    <hyperlink ref="A299" r:id="rId288"/>
+    <hyperlink ref="A300" r:id="rId289"/>
+    <hyperlink ref="A301" r:id="rId290"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId291"/>
 </worksheet>
 </file>
 
